--- a/Apriori/AprioriProject-Excel/ikili_kurallar.xlsx
+++ b/Apriori/AprioriProject-Excel/ikili_kurallar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edanu\Desktop\AprioriProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edanu\Desktop\Bitirme Projesi\AprioriProject-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E09FC-3321-43DB-A620-E57F21E31D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0271A-DD67-4DCD-9AAE-2D18373721AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="33">
   <si>
     <t>Ürün A</t>
   </si>
@@ -43,43 +43,34 @@
     <t>gofret</t>
   </si>
   <si>
-    <t>biskuvi</t>
-  </si>
-  <si>
     <t>sut</t>
   </si>
   <si>
     <t>peynir</t>
   </si>
   <si>
+    <t>biskuvi</t>
+  </si>
+  <si>
     <t>makarna</t>
+  </si>
+  <si>
+    <t>ekmek</t>
+  </si>
+  <si>
+    <t>tavuk</t>
   </si>
   <si>
     <t>kek</t>
   </si>
   <si>
-    <t>ekmek</t>
-  </si>
-  <si>
-    <t>kahve</t>
+    <t>gazli icecek</t>
   </si>
   <si>
     <t>cips</t>
   </si>
   <si>
-    <t>tavuk</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>gazli icecek</t>
-  </si>
-  <si>
-    <t>domates</t>
-  </si>
-  <si>
-    <t>salatalik</t>
+    <t>kahve</t>
   </si>
   <si>
     <t>yogurt</t>
@@ -88,46 +79,43 @@
     <t>soguk cay</t>
   </si>
   <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>meyve suyu</t>
+  </si>
+  <si>
     <t>yumurta</t>
+  </si>
+  <si>
+    <t>patates</t>
   </si>
   <si>
     <t>kraker</t>
   </si>
   <si>
-    <t>patates</t>
+    <t>misir</t>
+  </si>
+  <si>
+    <t>islak mendil</t>
+  </si>
+  <si>
+    <t>sakiz</t>
+  </si>
+  <si>
+    <t>domates</t>
   </si>
   <si>
     <t>tutun mamulu</t>
   </si>
   <si>
-    <t>sivi deterjan</t>
-  </si>
-  <si>
-    <t>sakiz</t>
-  </si>
-  <si>
-    <t>cekirdek</t>
-  </si>
-  <si>
-    <t>islak mendil</t>
-  </si>
-  <si>
-    <t>pirinc</t>
+    <t>maden suyu</t>
   </si>
   <si>
     <t>ayran</t>
   </si>
   <si>
-    <t>maden suyu</t>
-  </si>
-  <si>
     <t>tatli</t>
-  </si>
-  <si>
-    <t>limon</t>
-  </si>
-  <si>
-    <t>kagit havlu</t>
   </si>
   <si>
     <t>elma</t>
@@ -493,16 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,302 +518,302 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>7.9100000000000004E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>0.28210000000000002</v>
+        <v>0.2828</v>
       </c>
       <c r="E2">
-        <v>0.4783</v>
+        <v>0.4118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>6.83E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="D3">
-        <v>0.39579999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="E3">
-        <v>0.24360000000000001</v>
+        <v>0.30380000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6.83E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="D4">
-        <v>0.24360000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="E4">
-        <v>0.33329999999999999</v>
+        <v>0.29110000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5">
-        <v>5.7599999999999998E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="D5">
-        <v>0.2051</v>
+        <v>0.40350000000000003</v>
       </c>
       <c r="E5">
-        <v>0.44440000000000002</v>
+        <v>0.23230000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5.3999999999999999E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.3125</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="E6">
-        <v>0.3261</v>
+        <v>0.40379999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5.3999999999999999E-2</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="D7">
-        <v>0.41670000000000001</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="E7">
-        <v>0.26319999999999999</v>
+        <v>0.4118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.04E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>0.17949999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E8">
-        <v>0.35899999999999999</v>
+        <v>0.27939999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>5.04E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.17949999999999999</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="E9">
-        <v>0.3256</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>4.6800000000000001E-2</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>0.26</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="E10">
-        <v>0.30230000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3.9600000000000003E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="D11">
-        <v>0.14099999999999999</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="E11">
-        <v>0.3548</v>
+        <v>0.23530000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3.9600000000000003E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.14099999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="E12">
-        <v>0.29730000000000001</v>
+        <v>0.23530000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>3.9600000000000003E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="D13">
-        <v>0.22</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="E13">
-        <v>0.30559999999999998</v>
+        <v>0.20250000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="D14">
-        <v>0.28210000000000002</v>
+        <v>0.2059</v>
       </c>
       <c r="E14">
-        <v>0.30559999999999998</v>
+        <v>0.24560000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>3.9600000000000003E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0.23910000000000001</v>
+        <v>0.1313</v>
       </c>
       <c r="E15">
-        <v>0.193</v>
+        <v>0.28889999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>3.9600000000000003E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D16">
-        <v>0.14099999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E16">
-        <v>0.28210000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3.9600000000000003E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D17">
-        <v>0.22</v>
+        <v>0.1313</v>
       </c>
       <c r="E17">
-        <v>0.23910000000000001</v>
+        <v>0.29549999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D18">
-        <v>0.20830000000000001</v>
+        <v>0.21049999999999999</v>
       </c>
       <c r="E18">
-        <v>0.3226</v>
+        <v>0.31580000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D19">
-        <v>0.12820000000000001</v>
+        <v>0.21049999999999999</v>
       </c>
       <c r="E19">
-        <v>0.2</v>
+        <v>0.21049999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -834,50 +821,50 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D20">
-        <v>0.20830000000000001</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="E20">
-        <v>0.2326</v>
+        <v>0.26669999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D21">
-        <v>0.3125</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="E21">
-        <v>0.21740000000000001</v>
+        <v>0.23530000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="E22">
-        <v>0.27779999999999999</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -885,33 +872,33 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D23">
-        <v>0.25640000000000002</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="E23">
-        <v>0.1754</v>
+        <v>0.15190000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="D24">
-        <v>0.41670000000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="E24">
-        <v>0.625</v>
+        <v>0.31580000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>3.5999999999999997E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D25">
-        <v>0.12820000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="E25">
-        <v>0.27779999999999999</v>
+        <v>0.21149999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -936,50 +923,50 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>3.5999999999999997E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D26">
-        <v>0.12820000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="E26">
-        <v>0.3125</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>3.2399999999999998E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D27">
-        <v>0.15790000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="E27">
-        <v>0.2727</v>
+        <v>0.21149999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>3.2399999999999998E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D28">
-        <v>0.1875</v>
+        <v>0.1618</v>
       </c>
       <c r="E28">
-        <v>0.15790000000000001</v>
+        <v>0.42309999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -987,798 +974,798 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D29">
-        <v>0.1026</v>
+        <v>0.1111</v>
       </c>
       <c r="E29">
-        <v>0.42109999999999997</v>
+        <v>0.22450000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D30">
-        <v>0.1404</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="E30">
-        <v>0.38100000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D31">
-        <v>0.1026</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="E31">
-        <v>0.33329999999999999</v>
+        <v>0.13919999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
       <c r="C32">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D32">
-        <v>0.16669999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="E32">
-        <v>0.2162</v>
+        <v>0.13919999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D33">
-        <v>0.1739</v>
+        <v>0.193</v>
       </c>
       <c r="E33">
-        <v>0.186</v>
+        <v>0.24440000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D34">
-        <v>0.186</v>
+        <v>0.28949999999999998</v>
       </c>
       <c r="E34">
-        <v>0.22220000000000001</v>
+        <v>0.13919999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D35">
-        <v>0.2162</v>
+        <v>0.1618</v>
       </c>
       <c r="E35">
-        <v>0.25</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D36">
-        <v>0.1739</v>
+        <v>0.1618</v>
       </c>
       <c r="E36">
-        <v>0.2051</v>
+        <v>0.13919999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>2.8799999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D37">
-        <v>0.16</v>
+        <v>0.193</v>
       </c>
       <c r="E37">
-        <v>0.1404</v>
+        <v>0.13919999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>2.8799999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D38">
-        <v>0.16669999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.35709999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>2.8799999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D39">
-        <v>0.42109999999999997</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E39">
-        <v>0.1404</v>
+        <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>2.8799999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
+        <v>0.2273</v>
       </c>
       <c r="E40">
-        <v>0.22220000000000001</v>
+        <v>0.1961</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>2.8799999999999999E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D41">
-        <v>0.2051</v>
+        <v>0.1961</v>
       </c>
       <c r="E41">
-        <v>0.1404</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>2.52E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D42">
-        <v>0.17949999999999999</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="E42">
-        <v>0.19439999999999999</v>
+        <v>0.12659999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>2.52E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D43">
-        <v>0.1522</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E43">
-        <v>0.17949999999999999</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>2.52E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>0.29170000000000001</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="E44">
-        <v>0.14000000000000001</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>2.52E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D45">
-        <v>0.14580000000000001</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="E45">
-        <v>0.19439999999999999</v>
+        <v>0.1961</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>2.52E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D46">
-        <v>0.1628</v>
+        <v>0.2041</v>
       </c>
       <c r="E46">
-        <v>0.12280000000000001</v>
+        <v>0.12659999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D47">
-        <v>0.2258</v>
+        <v>0.1731</v>
       </c>
       <c r="E47">
-        <v>0.19439999999999999</v>
+        <v>0.17649999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D48">
-        <v>0.1628</v>
+        <v>0.23680000000000001</v>
       </c>
       <c r="E48">
-        <v>0.17949999999999999</v>
+        <v>0.17649999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D49">
-        <v>0.2258</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E49">
-        <v>0.12280000000000001</v>
+        <v>0.26469999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D50">
-        <v>0.35</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="E50">
-        <v>0.12280000000000001</v>
+        <v>0.26469999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D51">
-        <v>0.21879999999999999</v>
+        <v>0.1139</v>
       </c>
       <c r="E51">
-        <v>0.12280000000000001</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D52">
-        <v>0.19439999999999999</v>
+        <v>0.23680000000000001</v>
       </c>
       <c r="E52">
-        <v>0.33329999999999999</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
       <c r="C53">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>0.35</v>
+        <v>0.13239999999999999</v>
       </c>
       <c r="E53">
-        <v>0.19439999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D54">
-        <v>0.14580000000000001</v>
+        <v>0.13239999999999999</v>
       </c>
       <c r="E54">
-        <v>0.14000000000000001</v>
+        <v>0.23680000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D55">
-        <v>8.9700000000000002E-2</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E55">
-        <v>0.36840000000000001</v>
+        <v>0.20449999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D56">
-        <v>0.19439999999999999</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="E56">
-        <v>0.4375</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>2.52E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D57">
-        <v>0.1522</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E57">
-        <v>0.36840000000000001</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D58">
-        <v>0.18920000000000001</v>
+        <v>0.1404</v>
       </c>
       <c r="E58">
-        <v>0.12280000000000001</v>
+        <v>0.15690000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D59">
-        <v>0.14580000000000001</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="E59">
-        <v>0.36840000000000001</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D60">
-        <v>0.14580000000000001</v>
+        <v>0.15690000000000001</v>
       </c>
       <c r="E60">
-        <v>0.29170000000000001</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>0.19439999999999999</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="E61">
-        <v>0.21210000000000001</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D62">
-        <v>8.9700000000000002E-2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="E62">
-        <v>0.21210000000000001</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D63">
-        <v>0.14580000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>2.52E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D64">
-        <v>0.18920000000000001</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="E64">
-        <v>0.1522</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D65">
-        <v>7.6899999999999996E-2</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="E65">
-        <v>0.21429999999999999</v>
+        <v>0.1404</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D66">
-        <v>0.3</v>
+        <v>0.1404</v>
       </c>
       <c r="E66">
-        <v>0.28570000000000001</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D67">
-        <v>0.125</v>
+        <v>0.1176</v>
       </c>
       <c r="E67">
-        <v>0.4</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
       <c r="C68">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D68">
-        <v>0.1053</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E68">
-        <v>0.31580000000000003</v>
+        <v>0.15690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D69">
-        <v>0.16220000000000001</v>
+        <v>0.1404</v>
       </c>
       <c r="E69">
-        <v>0.13950000000000001</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D70">
-        <v>0.25</v>
+        <v>0.1176</v>
       </c>
       <c r="E70">
-        <v>0.28570000000000001</v>
+        <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D71">
-        <v>0.125</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E71">
-        <v>0.375</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C72">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D72">
-        <v>7.6899999999999996E-2</v>
+        <v>0.1404</v>
       </c>
       <c r="E72">
-        <v>0.28570000000000001</v>
+        <v>0.30769999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>0.16220000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="E73">
-        <v>0.15379999999999999</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D74">
-        <v>0.125</v>
+        <v>0.1404</v>
       </c>
       <c r="E74">
-        <v>0.35289999999999999</v>
+        <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>0.35289999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E75">
-        <v>0.16669999999999999</v>
+        <v>0.15690000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1786,220 +1773,220 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>0.12</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E76">
-        <v>0.15379999999999999</v>
+        <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
         <v>26</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
       <c r="C77">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D77">
-        <v>0.375</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="E77">
-        <v>0.1053</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C78">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D78">
-        <v>0.42859999999999998</v>
+        <v>0.1404</v>
       </c>
       <c r="E78">
-        <v>0.16669999999999999</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
         <v>19</v>
       </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
       <c r="C79">
-        <v>2.1600000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D79">
-        <v>0.375</v>
+        <v>0.1176</v>
       </c>
       <c r="E79">
-        <v>0.1053</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E80">
-        <v>7.6899999999999996E-2</v>
+        <v>0.15559999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C81">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D81">
-        <v>0.19350000000000001</v>
+        <v>0.2414</v>
       </c>
       <c r="E81">
-        <v>0.31580000000000003</v>
+        <v>0.10290000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D82">
-        <v>0.125</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E82">
-        <v>0.18179999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C83">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D83">
-        <v>0.1875</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E83">
-        <v>0.28570000000000001</v>
+        <v>0.36840000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D84">
-        <v>0.13039999999999999</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="E84">
-        <v>0.16669999999999999</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D85">
-        <v>0.16669999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E85">
-        <v>0.375</v>
+        <v>8.8599999999999998E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D86">
-        <v>0.21429999999999999</v>
+        <v>0.2059</v>
       </c>
       <c r="E86">
-        <v>0.15379999999999999</v>
+        <v>8.8599999999999998E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D87">
-        <v>0.42859999999999998</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="E87">
-        <v>0.1053</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C88">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>0.35289999999999999</v>
+        <v>0.2059</v>
       </c>
       <c r="E88">
-        <v>0.1053</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2007,1662 +1994,1662 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C89">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>0.125</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="E89">
-        <v>0.15379999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>0.19350000000000001</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="E90">
-        <v>0.21429999999999999</v>
+        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D91">
-        <v>0.13039999999999999</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="E91">
-        <v>0.16669999999999999</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
         <v>19</v>
       </c>
-      <c r="B92" t="s">
-        <v>20</v>
-      </c>
       <c r="C92">
-        <v>2.1600000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D92">
-        <v>0.375</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="E92">
-        <v>0.18179999999999999</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D93">
-        <v>6.4100000000000004E-2</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="E93">
-        <v>0.33329999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D94">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E94">
-        <v>0.17860000000000001</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D95">
-        <v>0.1163</v>
+        <v>0.2414</v>
       </c>
       <c r="E95">
-        <v>0.1515</v>
+        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D96">
-        <v>0.15620000000000001</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="E96">
-        <v>0.17860000000000001</v>
+        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C97">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D97">
-        <v>6.4100000000000004E-2</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="E97">
-        <v>0.3125</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D98">
-        <v>0.1351</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="E98">
-        <v>0.12820000000000001</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D99">
-        <v>0.33329999999999999</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="E99">
-        <v>0.23810000000000001</v>
+        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D100">
-        <v>0.20830000000000001</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="E100">
-        <v>0.12820000000000001</v>
+        <v>0.15559999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C101">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D101">
-        <v>0.15620000000000001</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="E101">
-        <v>0.26319999999999999</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D102">
-        <v>0.26319999999999999</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="E102">
-        <v>0.23810000000000001</v>
+        <v>0.15559999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D103">
-        <v>0.1389</v>
+        <v>0.1842</v>
       </c>
       <c r="E103">
-        <v>0.26319999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C104">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="D104">
-        <v>0.1087</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E104">
-        <v>0.23810000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D105">
-        <v>0.1087</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="E105">
-        <v>0.1515</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D106">
-        <v>0.3125</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E106">
-        <v>0.26319999999999999</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C107">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D107">
-        <v>0.29409999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="E107">
-        <v>0.1613</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D108">
-        <v>0.20830000000000001</v>
+        <v>0.1053</v>
       </c>
       <c r="E108">
-        <v>0.1389</v>
+        <v>0.12239999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D109">
-        <v>8.77E-2</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="E109">
-        <v>0.1389</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D110">
-        <v>0.1042</v>
+        <v>0.2069</v>
       </c>
       <c r="E110">
-        <v>0.23810000000000001</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D111">
-        <v>0.1042</v>
+        <v>0.1154</v>
       </c>
       <c r="E111">
-        <v>0.33329999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D112">
-        <v>0.1163</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E112">
-        <v>0.12820000000000001</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
       </c>
       <c r="C113">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D113">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="E113">
-        <v>0.23810000000000001</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C114">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D114">
-        <v>0.1389</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="E114">
-        <v>0.17860000000000001</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D115">
-        <v>0.29409999999999997</v>
+        <v>0.1154</v>
       </c>
       <c r="E115">
-        <v>0.23810000000000001</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D116">
-        <v>0.1</v>
+        <v>0.1053</v>
       </c>
       <c r="E116">
-        <v>0.1515</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C117">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D117">
-        <v>0.29409999999999997</v>
+        <v>0.1333</v>
       </c>
       <c r="E117">
-        <v>0.12820000000000001</v>
+        <v>0.17649999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D118">
-        <v>0.1613</v>
+        <v>0.1333</v>
       </c>
       <c r="E118">
-        <v>0.1389</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D119">
-        <v>0.15620000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="E119">
-        <v>0.1389</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D120">
-        <v>0.41670000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="E120">
-        <v>8.77E-2</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D121">
-        <v>0.20830000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="E121">
-        <v>0.1613</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D122">
-        <v>0.1613</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E122">
-        <v>0.3125</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D123">
-        <v>0.1087</v>
+        <v>0.1053</v>
       </c>
       <c r="E123">
-        <v>0.3125</v>
+        <v>0.12239999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D124">
-        <v>0.1</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E124">
-        <v>0.23810000000000001</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C125">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D125">
-        <v>0.20830000000000001</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="E125">
-        <v>8.77E-2</v>
+        <v>0.28570000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C126">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D126">
-        <v>0.1613</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E126">
-        <v>0.12820000000000001</v>
+        <v>0.23080000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D127">
-        <v>0.15620000000000001</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="E127">
-        <v>0.35709999999999997</v>
+        <v>6.0600000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C128">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D128">
-        <v>0.1389</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E128">
-        <v>0.1389</v>
+        <v>0.31580000000000003</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C129">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D129">
-        <v>0.1087</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="E129">
-        <v>0.1613</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D130">
-        <v>0.1613</v>
+        <v>0.2069</v>
       </c>
       <c r="E130">
-        <v>0.12820000000000001</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" t="s">
-        <v>33</v>
-      </c>
       <c r="C131">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D131">
-        <v>0.1</v>
+        <v>0.1053</v>
       </c>
       <c r="E131">
-        <v>0.3125</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D132">
-        <v>0.28570000000000001</v>
+        <v>0.1053</v>
       </c>
       <c r="E132">
-        <v>0.1026</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C133">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D133">
-        <v>0.08</v>
+        <v>0.1154</v>
       </c>
       <c r="E133">
-        <v>0.2</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D134">
-        <v>9.2999999999999999E-2</v>
+        <v>0.2069</v>
       </c>
       <c r="E134">
-        <v>0.1111</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
       <c r="C135">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D135">
-        <v>0.08</v>
+        <v>0.2069</v>
       </c>
       <c r="E135">
-        <v>0.129</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C136">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D136">
-        <v>0.129</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E136">
-        <v>9.2999999999999999E-2</v>
+        <v>0.12239999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D137">
-        <v>0.125</v>
+        <v>0.2069</v>
       </c>
       <c r="E137">
-        <v>0.26669999999999999</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D138">
-        <v>0.1081</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E138">
-        <v>0.21049999999999999</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C139">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D139">
-        <v>0.1081</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="E139">
-        <v>0.25</v>
+        <v>0.28570000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C140">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D140">
-        <v>0.26669999999999999</v>
+        <v>0.1053</v>
       </c>
       <c r="E140">
-        <v>0.1111</v>
+        <v>0.28570000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D141">
-        <v>0.1111</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E141">
-        <v>0.1905</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C142">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D142">
-        <v>0.16669999999999999</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="E142">
-        <v>0.1026</v>
+        <v>0.26090000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
         <v>17</v>
       </c>
-      <c r="B143" t="s">
-        <v>29</v>
-      </c>
       <c r="C143">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D143">
-        <v>0.125</v>
+        <v>0.1154</v>
       </c>
       <c r="E143">
-        <v>0.23530000000000001</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D144">
-        <v>0.125</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="E144">
-        <v>0.1026</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C145">
-        <v>1.44E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="D145">
-        <v>0.16669999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E145">
-        <v>7.0199999999999999E-2</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C146">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D146">
-        <v>0.26669999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E146">
-        <v>7.0199999999999999E-2</v>
+        <v>0.23810000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
         <v>26</v>
       </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
       <c r="C147">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D147">
-        <v>0.25</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E147">
-        <v>0.1212</v>
+        <v>0.12820000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C148">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D148">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="E148">
-        <v>0.129</v>
+        <v>0.23810000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D149">
-        <v>0.08</v>
+        <v>0.1111</v>
       </c>
       <c r="E149">
-        <v>0.1429</v>
+        <v>7.3499999999999996E-2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C150">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D150">
-        <v>0.1026</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E150">
-        <v>0.1212</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D151">
-        <v>8.3299999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E151">
-        <v>0.21049999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D152">
-        <v>8.6999999999999994E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E152">
-        <v>0.25</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C153">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D153">
-        <v>0.129</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="E153">
-        <v>0.33329999999999999</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C154">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D154">
-        <v>0.1111</v>
+        <v>0.25</v>
       </c>
       <c r="E154">
-        <v>0.28570000000000001</v>
+        <v>9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
       </c>
       <c r="C155">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D155">
-        <v>0.28570000000000001</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="E155">
-        <v>0.1905</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C156">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D156">
-        <v>0.1081</v>
+        <v>0.1724</v>
       </c>
       <c r="E156">
-        <v>0.16669999999999999</v>
+        <v>9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C157">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D157">
-        <v>0.16669999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E157">
-        <v>9.2999999999999999E-2</v>
+        <v>0.11360000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C158">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D158">
-        <v>5.1299999999999998E-2</v>
+        <v>0.1724</v>
       </c>
       <c r="E158">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C159">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D159">
-        <v>0.16669999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="E159">
-        <v>0.1026</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C160">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D160">
-        <v>0.16669999999999999</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E160">
-        <v>0.1111</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C161">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D161">
-        <v>0.23530000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="E161">
-        <v>0.2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D162">
-        <v>0.16669999999999999</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="E162">
-        <v>7.0199999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C163">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D163">
-        <v>0.23530000000000001</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="E163">
-        <v>0.30769999999999997</v>
+        <v>0.12820000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C164">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D164">
-        <v>0.1026</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="E164">
-        <v>0.21049999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C165">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D165">
-        <v>0.26669999999999999</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="E165">
-        <v>0.1111</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C166">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D166">
-        <v>0.2</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="E166">
-        <v>0.1212</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C167">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D167">
-        <v>0.08</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E167">
-        <v>0.25</v>
+        <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C168">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D168">
-        <v>9.2999999999999999E-2</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E168">
-        <v>0.1905</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C169">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D169">
-        <v>0.28570000000000001</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E169">
-        <v>0.21049999999999999</v>
+        <v>0.1724</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C170">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D170">
-        <v>0.1026</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E170">
-        <v>0.1905</v>
+        <v>0.21740000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C171">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D171">
-        <v>8.3299999999999999E-2</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E171">
-        <v>0.1026</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C172">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D172">
-        <v>0.33329999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E172">
-        <v>0.25</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C173">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D173">
-        <v>0.26669999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E173">
-        <v>0.1026</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C174">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D174">
-        <v>0.1429</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E174">
-        <v>0.1905</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C175">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D175">
-        <v>8.6999999999999994E-2</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="E175">
-        <v>0.16669999999999999</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C176">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D176">
-        <v>0.23530000000000001</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="E176">
-        <v>0.21049999999999999</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D177">
-        <v>0.129</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="E177">
-        <v>0.25</v>
+        <v>9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
         <v>21</v>
       </c>
       <c r="C178">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D178">
-        <v>0.16669999999999999</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E178">
-        <v>0.21049999999999999</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C179">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D179">
-        <v>8.6999999999999994E-2</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E179">
-        <v>0.28570000000000001</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C180">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D180">
-        <v>5.1299999999999998E-2</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E180">
-        <v>0.25</v>
+        <v>0.13159999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C181">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D181">
-        <v>0.125</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="E181">
-        <v>0.1212</v>
+        <v>8.77E-2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C182">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D182">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="E182">
         <v>0.25</v>
-      </c>
-      <c r="E182">
-        <v>0.1905</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C183">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D183">
-        <v>0.1212</v>
+        <v>0.1111</v>
       </c>
       <c r="E183">
-        <v>0.1905</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C184">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D184">
-        <v>8.3299999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E184">
-        <v>0.25</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C185">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D185">
-        <v>5.1299999999999998E-2</v>
+        <v>0.1111</v>
       </c>
       <c r="E185">
-        <v>0.2</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C186">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D186">
-        <v>8.3299999999999999E-2</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="E186">
         <v>0.1111</v>
@@ -3670,917 +3657,917 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C187">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D187">
-        <v>0.26669999999999999</v>
+        <v>7.3499999999999996E-2</v>
       </c>
       <c r="E187">
-        <v>0.1026</v>
+        <v>0.14710000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C188">
-        <v>1.44E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="D188">
-        <v>0.30769999999999997</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="E188">
-        <v>7.0199999999999999E-2</v>
+        <v>0.17860000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C189">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D189">
-        <v>0.16669999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E189">
-        <v>0.21049999999999999</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C190">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D190">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="E190">
-        <v>0.1212</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C191">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D191">
-        <v>0.30769999999999997</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="E191">
-        <v>0.1111</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
         <v>31</v>
       </c>
-      <c r="B192" t="s">
-        <v>16</v>
-      </c>
       <c r="C192">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D192">
-        <v>0.16669999999999999</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E192">
-        <v>0.1026</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C193">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D193">
-        <v>0.1081</v>
+        <v>0.1905</v>
       </c>
       <c r="E193">
-        <v>0.08</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
         <v>28</v>
       </c>
-      <c r="B194" t="s">
-        <v>14</v>
-      </c>
       <c r="C194">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D194">
-        <v>0.26669999999999999</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="E194">
-        <v>0.1081</v>
+        <v>0.21049999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C195">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D195">
-        <v>9.2999999999999999E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="E195">
-        <v>0.1429</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C196">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D196">
-        <v>0.23530000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="E196">
-        <v>0.25</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C197">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D197">
-        <v>0.25</v>
+        <v>0.1053</v>
       </c>
       <c r="E197">
-        <v>0.25</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C198">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D198">
-        <v>0.1026</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="E198">
-        <v>0.1429</v>
+        <v>0.21049999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C199">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D199">
-        <v>0.1081</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E199">
-        <v>0.2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C200">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D200">
-        <v>0.1026</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="E200">
-        <v>0.21049999999999999</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C201">
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D201">
-        <v>0.16669999999999999</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="E201">
-        <v>0.1212</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C202">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D202">
-        <v>8.1100000000000005E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E202">
-        <v>0.1071</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B203" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C203">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D203">
-        <v>6.5199999999999994E-2</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E203">
-        <v>0.1071</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C204">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D204">
-        <v>0.15</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E204">
-        <v>0.15790000000000001</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C205">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D205">
-        <v>8.1100000000000005E-2</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E205">
-        <v>0.2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C206">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D206">
-        <v>8.1100000000000005E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E206">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C207">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D207">
-        <v>8.1100000000000005E-2</v>
+        <v>0.1053</v>
       </c>
       <c r="E207">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C208">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D208">
-        <v>6.25E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E208">
-        <v>0.1875</v>
+        <v>0.13789999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C209">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D209">
-        <v>9.3799999999999994E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="E209">
-        <v>7.6899999999999996E-2</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C210">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D210">
-        <v>6.5199999999999994E-2</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="E210">
-        <v>0.15</v>
+        <v>9.0899999999999995E-2</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C211">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D211">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="E211">
-        <v>0.15790000000000001</v>
+        <v>5.0599999999999999E-2</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C212">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D212">
-        <v>0.15790000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="E212">
-        <v>0.15790000000000001</v>
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D213">
-        <v>0.21429999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E213">
-        <v>0.1875</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C214">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D214">
-        <v>6.5199999999999994E-2</v>
+        <v>0.1176</v>
       </c>
       <c r="E214">
-        <v>0.15790000000000001</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B215" t="s">
         <v>21</v>
       </c>
       <c r="C215">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D215">
-        <v>6.9800000000000001E-2</v>
+        <v>0.1053</v>
       </c>
       <c r="E215">
-        <v>0.15790000000000001</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C216">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D216">
-        <v>0.06</v>
+        <v>0.1176</v>
       </c>
       <c r="E216">
-        <v>0.125</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C217">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D217">
-        <v>0.06</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="E217">
-        <v>7.6899999999999996E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C218">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D218">
-        <v>7.6899999999999996E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E218">
-        <v>0.1429</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C219">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D219">
-        <v>9.3799999999999994E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E219">
-        <v>0.1875</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C220">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D220">
-        <v>6.25E-2</v>
+        <v>0.1905</v>
       </c>
       <c r="E220">
-        <v>0.125</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
       </c>
       <c r="C221">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D221">
-        <v>0.15790000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E221">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C222">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D222">
-        <v>0.125</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E222">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C223">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D223">
-        <v>0.2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="E223">
-        <v>0.1875</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C224">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D224">
-        <v>9.6799999999999997E-2</v>
+        <v>0.1429</v>
       </c>
       <c r="E224">
-        <v>0.2</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
         <v>28</v>
       </c>
-      <c r="B225" t="s">
-        <v>18</v>
-      </c>
       <c r="C225">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D225">
-        <v>0.2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E225">
-        <v>0.125</v>
+        <v>0.21049999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C226">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D226">
-        <v>0.23080000000000001</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E226">
-        <v>7.6899999999999996E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B227" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C227">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D227">
-        <v>0.23080000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E227">
-        <v>9.0899999999999995E-2</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
         <v>18</v>
       </c>
-      <c r="B228" t="s">
-        <v>27</v>
-      </c>
       <c r="C228">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D228">
-        <v>0.125</v>
+        <v>0.1053</v>
       </c>
       <c r="E228">
-        <v>0.1071</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C229">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D229">
-        <v>0.06</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E229">
-        <v>0.23080000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
         <v>26</v>
       </c>
       <c r="C230">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D230">
-        <v>0.2</v>
+        <v>0.1429</v>
       </c>
       <c r="E230">
-        <v>0.1875</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C231">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D231">
-        <v>7.6899999999999996E-2</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="E231">
-        <v>0.15</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B232" t="s">
         <v>17</v>
       </c>
       <c r="C232">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D232">
-        <v>0.125</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="E232">
-        <v>9.3799999999999994E-2</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C233">
-        <v>1.0800000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D233">
-        <v>0.125</v>
+        <v>0.1905</v>
       </c>
       <c r="E233">
-        <v>0.15</v>
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C234">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D234">
-        <v>7.6899999999999996E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="E234">
-        <v>7.6899999999999996E-2</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C235">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D235">
-        <v>0.2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="E235">
-        <v>9.6799999999999997E-2</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C236">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D236">
-        <v>6.25E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="E236">
-        <v>0.15</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C237">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D237">
-        <v>0.15</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="E237">
-        <v>8.3299999999999999E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" t="s">
         <v>12</v>
       </c>
-      <c r="B238" t="s">
-        <v>17</v>
-      </c>
       <c r="C238">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D238">
-        <v>0.06</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E238">
-        <v>9.3799999999999994E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C239">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D239">
-        <v>0.125</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="E239">
-        <v>0.21429999999999999</v>
+        <v>4.41E-2</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C240">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D240">
-        <v>9.3799999999999994E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="E240">
         <v>0.15</v>
@@ -4588,67 +4575,67 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B241" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C241">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D241">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="E241">
-        <v>0.23080000000000001</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C242">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D242">
-        <v>0.125</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="E242">
-        <v>7.6899999999999996E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C243">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D243">
-        <v>0.23080000000000001</v>
+        <v>0.1154</v>
       </c>
       <c r="E243">
-        <v>9.6799999999999997E-2</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C244">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D244">
-        <v>0.2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="E244">
         <v>0.15790000000000001</v>
@@ -4656,733 +4643,733 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C245">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D245">
-        <v>0.23080000000000001</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="E245">
-        <v>0.21429999999999999</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B246" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C246">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D246">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="E246">
-        <v>0.17649999999999999</v>
+        <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C247">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D247">
-        <v>0.17649999999999999</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="E247">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C248">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D248">
-        <v>0.1071</v>
+        <v>0.1875</v>
       </c>
       <c r="E248">
-        <v>8.3299999999999999E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C249">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D249">
-        <v>0.21429999999999999</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E249">
-        <v>0.1875</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C250">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D250">
-        <v>9.6799999999999997E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E250">
-        <v>0.1429</v>
+        <v>5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B251" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C251">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D251">
-        <v>0.17649999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="E251">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B252" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C252">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D252">
-        <v>0.125</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="E252">
-        <v>0.1875</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" t="s">
         <v>10</v>
       </c>
-      <c r="B253" t="s">
-        <v>26</v>
-      </c>
       <c r="C253">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D253">
-        <v>7.6899999999999996E-2</v>
+        <v>0.1154</v>
       </c>
       <c r="E253">
-        <v>0.1875</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C254">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D254">
-        <v>0.15790000000000001</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="E254">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C255">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D255">
-        <v>9.6799999999999997E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="E255">
-        <v>0.15790000000000001</v>
+        <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s">
         <v>23</v>
       </c>
-      <c r="B256" t="s">
-        <v>27</v>
-      </c>
       <c r="C256">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D256">
-        <v>0.125</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="E256">
-        <v>0.1071</v>
+        <v>8.8200000000000001E-2</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
         <v>20</v>
       </c>
       <c r="C257">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D257">
-        <v>8.1100000000000005E-2</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="E257">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C258">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D258">
-        <v>3.85E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="E258">
-        <v>0.17649999999999999</v>
+        <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C259">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D259">
-        <v>0.17649999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E259">
-        <v>0.21429999999999999</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B260" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C260">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D260">
-        <v>6.5199999999999994E-2</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="E260">
-        <v>0.17649999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C261">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D261">
-        <v>7.6899999999999996E-2</v>
+        <v>0.1071</v>
       </c>
       <c r="E261">
-        <v>0.21429999999999999</v>
+        <v>6.1199999999999997E-2</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C262">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D262">
-        <v>7.6899999999999996E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E262">
-        <v>0.1875</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B263" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C263">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D263">
-        <v>6.9800000000000001E-2</v>
+        <v>0.1154</v>
       </c>
       <c r="E263">
-        <v>0.1875</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C264">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D264">
-        <v>0.25</v>
+        <v>4.41E-2</v>
       </c>
       <c r="E264">
-        <v>0.1429</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>25</v>
+      </c>
+      <c r="B265" t="s">
         <v>26</v>
       </c>
-      <c r="B265" t="s">
-        <v>15</v>
-      </c>
       <c r="C265">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D265">
-        <v>0.1875</v>
+        <v>0.15</v>
       </c>
       <c r="E265">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
       </c>
       <c r="C266">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D266">
-        <v>0.1071</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="E266">
-        <v>5.2600000000000001E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C267">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D267">
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E267">
-        <v>0.25</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C268">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D268">
-        <v>9.3799999999999994E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="E268">
-        <v>6.9800000000000001E-2</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C269">
-        <v>1.0800000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D269">
-        <v>0.25</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="E269">
-        <v>9.0899999999999995E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" t="s">
         <v>12</v>
       </c>
-      <c r="B270" t="s">
-        <v>21</v>
-      </c>
       <c r="C270">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D270">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E270">
-        <v>0.15790000000000001</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C271">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D271">
-        <v>0.2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E271">
-        <v>5.2600000000000001E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272" t="s">
         <v>12</v>
       </c>
-      <c r="B272" t="s">
-        <v>26</v>
-      </c>
       <c r="C272">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D272">
-        <v>0.06</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="E272">
-        <v>0.1875</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C273">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D273">
-        <v>0.15</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E273">
-        <v>7.6899999999999996E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B274" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C274">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D274">
-        <v>3.85E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="E274">
-        <v>0.21429999999999999</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B275" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C275">
-        <v>1.0800000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D275">
-        <v>0.06</v>
+        <v>0.1053</v>
       </c>
       <c r="E275">
-        <v>0.2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" t="s">
         <v>28</v>
       </c>
-      <c r="B276" t="s">
-        <v>27</v>
-      </c>
       <c r="C276">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D276">
-        <v>0.1333</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E276">
-        <v>7.1400000000000005E-2</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B277" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C277">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D277">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E277">
-        <v>9.5200000000000007E-2</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C278">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D278">
-        <v>8.3299999999999999E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="E278">
-        <v>4.1700000000000001E-2</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C279">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D279">
-        <v>4.65E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="E279">
-        <v>0.1333</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C280">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D280">
-        <v>5.4100000000000002E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E280">
-        <v>0.1176</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C281">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D281">
-        <v>2.5600000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E281">
-        <v>0.15379999999999999</v>
+        <v>2.53E-2</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B282" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C282">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D282">
-        <v>0.1176</v>
+        <v>0.1</v>
       </c>
       <c r="E282">
-        <v>0.1333</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C283">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D283">
-        <v>7.1400000000000005E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="E283">
-        <v>0.125</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" t="s">
         <v>28</v>
       </c>
-      <c r="B284" t="s">
-        <v>16</v>
-      </c>
       <c r="C284">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D284">
-        <v>0.1333</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="E284">
-        <v>5.1299999999999998E-2</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C285">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D285">
-        <v>5.5599999999999997E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E285">
-        <v>0.125</v>
+        <v>9.5200000000000007E-2</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C286">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D286">
-        <v>4.3499999999999997E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E286">
-        <v>0.1333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C287">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D287">
-        <v>0.1333</v>
+        <v>0.125</v>
       </c>
       <c r="E287">
-        <v>6.25E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5390,285 +5377,285 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C288">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D288">
-        <v>4.65E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E288">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B289" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D289">
-        <v>0.16669999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E289">
-        <v>0.1333</v>
+        <v>3.5099999999999999E-2</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C290">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D290">
-        <v>4.3499999999999997E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E290">
-        <v>0.15379999999999999</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C291">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D291">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E291">
-        <v>5.4100000000000002E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C292">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D292">
-        <v>0.1333</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E292">
-        <v>4.3499999999999997E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B293" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C293">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D293">
-        <v>3.5099999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E293">
-        <v>0.125</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B294" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C294">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D294">
-        <v>4.1700000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E294">
-        <v>0.15379999999999999</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C295">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D295">
-        <v>0.15379999999999999</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E295">
-        <v>6.0600000000000001E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C296">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D296">
-        <v>5.1299999999999998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E296">
-        <v>0.125</v>
+        <v>4.5499999999999999E-2</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C297">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D297">
-        <v>0.1176</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E297">
-        <v>5.1299999999999998E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C298">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D298">
-        <v>8.3299999999999999E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E298">
-        <v>5.5599999999999997E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C299">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D299">
-        <v>5.1299999999999998E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E299">
-        <v>5.5599999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B300" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C300">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D300">
-        <v>0.1176</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E300">
-        <v>0.125</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C301">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D301">
-        <v>0.16669999999999999</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="E301">
-        <v>0.1053</v>
+        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C302">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D302">
-        <v>0.125</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="E302">
-        <v>0.1053</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B303" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C303">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D303">
-        <v>0.16669999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E303">
-        <v>0.125</v>
+        <v>9.5200000000000007E-2</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B304" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C304">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D304">
-        <v>0.1333</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="E304">
         <v>0.1053</v>
@@ -5676,87 +5663,87 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B305" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C305">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D305">
         <v>0.125</v>
       </c>
       <c r="E305">
-        <v>9.5200000000000007E-2</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>8</v>
+      </c>
+      <c r="B306" t="s">
         <v>19</v>
       </c>
-      <c r="B306" t="s">
-        <v>15</v>
-      </c>
       <c r="C306">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D306">
-        <v>0.125</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="E306">
-        <v>5.5599999999999997E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B307" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C307">
-        <v>7.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="D307">
-        <v>4.1700000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E307">
-        <v>0.1429</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C308">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D308">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E308">
-        <v>0.125</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C309">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D309">
-        <v>6.4500000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E309">
-        <v>6.0600000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -5764,2379 +5751,764 @@
         <v>30</v>
       </c>
       <c r="B310" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D310">
-        <v>0.1429</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E310">
-        <v>6.0600000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C311">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D311">
-        <v>0.16669999999999999</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="E311">
-        <v>5.5599999999999997E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B312" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C312">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D312">
-        <v>6.4500000000000002E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E312">
-        <v>0.1</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B313" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C313">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D313">
-        <v>2.5600000000000001E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="E313">
-        <v>0.16669999999999999</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B314" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C314">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D314">
-        <v>5.1299999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E314">
-        <v>0.1053</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C315">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D315">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E315">
-        <v>6.0600000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B316" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D316">
-        <v>0.1176</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E316">
-        <v>0.16669999999999999</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C317">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D317">
-        <v>8.3299999999999999E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E317">
-        <v>4.3499999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B318" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C318">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D318">
-        <v>4.3499999999999997E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E318">
-        <v>0.16669999999999999</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C319">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D319">
-        <v>0.1333</v>
+        <v>0.05</v>
       </c>
       <c r="E319">
-        <v>4.65E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B320" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C320">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D320">
-        <v>4.65E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="E320">
-        <v>8.3299999999999999E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B321" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D321">
-        <v>0.1176</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E321">
-        <v>7.1400000000000005E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C322">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D322">
-        <v>0.1333</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E322">
-        <v>2.5600000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" t="s">
         <v>28</v>
       </c>
-      <c r="B323" t="s">
-        <v>32</v>
-      </c>
       <c r="C323">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D323">
-        <v>0.1333</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="E323">
-        <v>0.1333</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B324" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C324">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D324">
-        <v>0.1053</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E324">
-        <v>5.1299999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B325" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C325">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D325">
-        <v>5.4100000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E325">
-        <v>0.15379999999999999</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B326" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C326">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D326">
-        <v>8.3299999999999999E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E326">
-        <v>0.1333</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D327">
-        <v>0.1333</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E327">
-        <v>0.15379999999999999</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C328">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D328">
-        <v>8.3299999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E328">
-        <v>5.5599999999999997E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B329" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C329">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D329">
-        <v>0.15379999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E329">
-        <v>9.5200000000000007E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B330" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C330">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D330">
-        <v>0.15379999999999999</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E330">
-        <v>0.125</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C331">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D331">
-        <v>0.15379999999999999</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="E331">
-        <v>0.125</v>
+        <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C332">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D332">
-        <v>5.4100000000000002E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E332">
-        <v>8.3299999999999999E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B333" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C333">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D333">
-        <v>0.1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E333">
-        <v>0.1429</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C334">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D334">
-        <v>8.3299999999999999E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E334">
-        <v>0.04</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C335">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D335">
-        <v>0.125</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="E335">
-        <v>5.5599999999999997E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B336" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C336">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D336">
-        <v>8.3299999999999999E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E336">
-        <v>0.1053</v>
+        <v>3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B337" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C337">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D337">
-        <v>8.3299999999999999E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E337">
-        <v>7.1400000000000005E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B338" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C338">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D338">
-        <v>0.15379999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E338">
-        <v>0.1053</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B339" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C339">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D339">
-        <v>6.4500000000000002E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="E339">
-        <v>8.3299999999999999E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B340" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C340">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D340">
-        <v>0.1333</v>
+        <v>0.05</v>
       </c>
       <c r="E340">
-        <v>6.0600000000000001E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B341" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C341">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D341">
-        <v>7.1400000000000005E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E341">
-        <v>0.1053</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C342">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D342">
-        <v>0.1</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E342">
-        <v>0.125</v>
+        <v>1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B343" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C343">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D343">
-        <v>4.3499999999999997E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E343">
-        <v>0.125</v>
+        <v>2.63E-2</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B344" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C344">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D344">
-        <v>5.5599999999999997E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="E344">
-        <v>5.1299999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B345" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C345">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D345">
-        <v>0.04</v>
+        <v>2.63E-2</v>
       </c>
       <c r="E345">
-        <v>0.1429</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C346">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D346">
-        <v>6.4500000000000002E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E346">
-        <v>0.1429</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C347">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D347">
-        <v>4.65E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E347">
-        <v>0.1053</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B348" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C348">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D348">
-        <v>7.1400000000000005E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E348">
-        <v>6.0600000000000001E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B349" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C349">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D349">
-        <v>5.5599999999999997E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E349">
-        <v>0.1053</v>
+        <v>1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B350" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C350">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D350">
-        <v>0.125</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="E350">
-        <v>0.1053</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B351" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C351">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D351">
-        <v>0.1053</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E351">
-        <v>9.5200000000000007E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B352" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C352">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D352">
-        <v>6.25E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E352">
-        <v>0.1053</v>
+        <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B353" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C353">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D353">
-        <v>0.16669999999999999</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E353">
-        <v>0.1053</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C354">
-        <v>7.1999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="D354">
-        <v>2.5600000000000001E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E354">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>31</v>
-      </c>
-      <c r="B355" t="s">
-        <v>25</v>
-      </c>
-      <c r="C355">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D355">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E355">
-        <v>0.1053</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>36</v>
-      </c>
-      <c r="B356" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D356">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="E356">
-        <v>3.5099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>5</v>
-      </c>
-      <c r="B357" t="s">
-        <v>36</v>
-      </c>
-      <c r="C357">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D357">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="E357">
-        <v>0.15379999999999999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>27</v>
-      </c>
-      <c r="B358" t="s">
-        <v>33</v>
-      </c>
-      <c r="C358">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D358">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E358">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>18</v>
-      </c>
-      <c r="B359" t="s">
-        <v>34</v>
-      </c>
-      <c r="C359">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D359">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E359">
-        <v>0.16669999999999999</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>32</v>
-      </c>
-      <c r="B360" t="s">
-        <v>26</v>
-      </c>
-      <c r="C360">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D360">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E360">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>36</v>
-      </c>
-      <c r="B361" t="s">
-        <v>26</v>
-      </c>
-      <c r="C361">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D361">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E361">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>12</v>
-      </c>
-      <c r="B362" t="s">
-        <v>34</v>
-      </c>
-      <c r="C362">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D362">
-        <v>0.02</v>
-      </c>
-      <c r="E362">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>17</v>
-      </c>
-      <c r="B363" t="s">
-        <v>23</v>
-      </c>
-      <c r="C363">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D363">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E363">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>17</v>
-      </c>
-      <c r="B364" t="s">
-        <v>35</v>
-      </c>
-      <c r="C364">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D364">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E364">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>35</v>
-      </c>
-      <c r="B365" t="s">
-        <v>33</v>
-      </c>
-      <c r="C365">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D365">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E365">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>32</v>
-      </c>
-      <c r="B366" t="s">
-        <v>30</v>
-      </c>
-      <c r="C366">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D366">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E366">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>29</v>
-      </c>
-      <c r="B367" t="s">
-        <v>11</v>
-      </c>
-      <c r="C367">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D367">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="E367">
-        <v>2.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>31</v>
-      </c>
-      <c r="B368" t="s">
-        <v>23</v>
-      </c>
-      <c r="C368">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D368">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E368">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>29</v>
-      </c>
-      <c r="B369" t="s">
-        <v>23</v>
-      </c>
-      <c r="C369">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D369">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="E369">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>34</v>
-      </c>
-      <c r="B370" t="s">
-        <v>16</v>
-      </c>
-      <c r="C370">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D370">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E370">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>18</v>
-      </c>
-      <c r="B371" t="s">
-        <v>35</v>
-      </c>
-      <c r="C371">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D371">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E371">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>35</v>
-      </c>
-      <c r="B372" t="s">
-        <v>27</v>
-      </c>
-      <c r="C372">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D372">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E372">
-        <v>3.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>28</v>
-      </c>
-      <c r="B373" t="s">
-        <v>29</v>
-      </c>
-      <c r="C373">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D373">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E373">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>31</v>
-      </c>
-      <c r="B374" t="s">
-        <v>24</v>
-      </c>
-      <c r="C374">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D374">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E374">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>14</v>
-      </c>
-      <c r="B375" t="s">
-        <v>34</v>
-      </c>
-      <c r="C375">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D375">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E375">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>12</v>
-      </c>
-      <c r="B376" t="s">
-        <v>35</v>
-      </c>
-      <c r="C376">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D376">
-        <v>0.02</v>
-      </c>
-      <c r="E376">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>28</v>
-      </c>
-      <c r="B377" t="s">
-        <v>22</v>
-      </c>
-      <c r="C377">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D377">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E377">
-        <v>4.7600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>27</v>
-      </c>
-      <c r="B378" t="s">
-        <v>19</v>
-      </c>
-      <c r="C378">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D378">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="E378">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>31</v>
-      </c>
-      <c r="B379" t="s">
-        <v>6</v>
-      </c>
-      <c r="C379">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D379">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E379">
-        <v>2.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>36</v>
-      </c>
-      <c r="B380" t="s">
-        <v>19</v>
-      </c>
-      <c r="C380">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D380">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E380">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>36</v>
-      </c>
-      <c r="B381" t="s">
-        <v>10</v>
-      </c>
-      <c r="C381">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D381">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E381">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>33</v>
-      </c>
-      <c r="B382" t="s">
-        <v>22</v>
-      </c>
-      <c r="C382">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D382">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E382">
-        <v>4.7600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>34</v>
-      </c>
-      <c r="B383" t="s">
-        <v>33</v>
-      </c>
-      <c r="C383">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D383">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E383">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>30</v>
-      </c>
-      <c r="B384" t="s">
-        <v>27</v>
-      </c>
-      <c r="C384">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D384">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E384">
-        <v>3.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>32</v>
-      </c>
-      <c r="B385" t="s">
-        <v>20</v>
-      </c>
-      <c r="C385">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D385">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E385">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>18</v>
-      </c>
-      <c r="B386" t="s">
-        <v>23</v>
-      </c>
-      <c r="C386">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D386">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E386">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>23</v>
-      </c>
-      <c r="B387" t="s">
-        <v>19</v>
-      </c>
-      <c r="C387">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D387">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E387">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>23</v>
-      </c>
-      <c r="B388" t="s">
-        <v>34</v>
-      </c>
-      <c r="C388">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D388">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E388">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>28</v>
-      </c>
-      <c r="B389" t="s">
-        <v>12</v>
-      </c>
-      <c r="C389">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D389">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E389">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>28</v>
-      </c>
-      <c r="B390" t="s">
-        <v>15</v>
-      </c>
-      <c r="C390">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D390">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E390">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>28</v>
-      </c>
-      <c r="B391" t="s">
-        <v>10</v>
-      </c>
-      <c r="C391">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D391">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E391">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>23</v>
-      </c>
-      <c r="B392" t="s">
-        <v>26</v>
-      </c>
-      <c r="C392">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D392">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E392">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>23</v>
-      </c>
-      <c r="B393" t="s">
-        <v>30</v>
-      </c>
-      <c r="C393">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D393">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E393">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>28</v>
-      </c>
-      <c r="B394" t="s">
-        <v>21</v>
-      </c>
-      <c r="C394">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D394">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E394">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>25</v>
-      </c>
-      <c r="B395" t="s">
-        <v>20</v>
-      </c>
-      <c r="C395">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D395">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="E395">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>15</v>
-      </c>
-      <c r="B396" t="s">
-        <v>25</v>
-      </c>
-      <c r="C396">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D396">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="E396">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>30</v>
-      </c>
-      <c r="B397" t="s">
-        <v>25</v>
-      </c>
-      <c r="C397">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D397">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E397">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>18</v>
-      </c>
-      <c r="B398" t="s">
-        <v>11</v>
-      </c>
-      <c r="C398">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D398">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E398">
-        <v>2.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>34</v>
-      </c>
-      <c r="B399" t="s">
-        <v>10</v>
-      </c>
-      <c r="C399">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D399">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E399">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>23</v>
-      </c>
-      <c r="B400" t="s">
-        <v>20</v>
-      </c>
-      <c r="C400">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D400">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E400">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>16</v>
-      </c>
-      <c r="B401" t="s">
-        <v>20</v>
-      </c>
-      <c r="C401">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D401">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="E401">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>29</v>
-      </c>
-      <c r="B402" t="s">
-        <v>25</v>
-      </c>
-      <c r="C402">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D402">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="E402">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>36</v>
-      </c>
-      <c r="B403" t="s">
-        <v>13</v>
-      </c>
-      <c r="C403">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D403">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E403">
-        <v>3.2300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>36</v>
-      </c>
-      <c r="B404" t="s">
-        <v>34</v>
-      </c>
-      <c r="C404">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D404">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E404">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>17</v>
-      </c>
-      <c r="B405" t="s">
-        <v>34</v>
-      </c>
-      <c r="C405">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D405">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E405">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>34</v>
-      </c>
-      <c r="B406" t="s">
-        <v>15</v>
-      </c>
-      <c r="C406">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D406">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E406">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>34</v>
-      </c>
-      <c r="B407" t="s">
-        <v>30</v>
-      </c>
-      <c r="C407">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D407">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E407">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>35</v>
-      </c>
-      <c r="B408" t="s">
-        <v>23</v>
-      </c>
-      <c r="C408">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D408">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E408">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>23</v>
-      </c>
-      <c r="B409" t="s">
-        <v>25</v>
-      </c>
-      <c r="C409">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D409">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E409">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>13</v>
-      </c>
-      <c r="B410" t="s">
-        <v>33</v>
-      </c>
-      <c r="C410">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D410">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="E410">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>16</v>
-      </c>
-      <c r="B411" t="s">
-        <v>33</v>
-      </c>
-      <c r="C411">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D411">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="E411">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>36</v>
-      </c>
-      <c r="B412" t="s">
-        <v>22</v>
-      </c>
-      <c r="C412">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D412">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E412">
-        <v>4.7600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>14</v>
-      </c>
-      <c r="B413" t="s">
-        <v>25</v>
-      </c>
-      <c r="C413">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D413">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E413">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>31</v>
-      </c>
-      <c r="B414" t="s">
-        <v>21</v>
-      </c>
-      <c r="C414">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D414">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E414">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>28</v>
-      </c>
-      <c r="B415" t="s">
-        <v>34</v>
-      </c>
-      <c r="C415">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D415">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E415">
-        <v>8.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>28</v>
-      </c>
-      <c r="B416" t="s">
-        <v>23</v>
-      </c>
-      <c r="C416">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D416">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E416">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>14</v>
-      </c>
-      <c r="B417" t="s">
-        <v>26</v>
-      </c>
-      <c r="C417">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D417">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E417">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>34</v>
-      </c>
-      <c r="B418" t="s">
-        <v>24</v>
-      </c>
-      <c r="C418">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D418">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E418">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>24</v>
-      </c>
-      <c r="B419" t="s">
-        <v>25</v>
-      </c>
-      <c r="C419">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D419">
-        <v>0.05</v>
-      </c>
-      <c r="E419">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>24</v>
-      </c>
-      <c r="B420" t="s">
-        <v>26</v>
-      </c>
-      <c r="C420">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D420">
-        <v>0.05</v>
-      </c>
-      <c r="E420">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>18</v>
-      </c>
-      <c r="B421" t="s">
-        <v>32</v>
-      </c>
-      <c r="C421">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D421">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E421">
-        <v>6.6699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>31</v>
-      </c>
-      <c r="B422" t="s">
-        <v>18</v>
-      </c>
-      <c r="C422">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D422">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E422">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>27</v>
-      </c>
-      <c r="B423" t="s">
-        <v>25</v>
-      </c>
-      <c r="C423">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D423">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="E423">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>31</v>
-      </c>
-      <c r="B424" t="s">
-        <v>9</v>
-      </c>
-      <c r="C424">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D424">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E424">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>31</v>
-      </c>
-      <c r="B425" t="s">
-        <v>19</v>
-      </c>
-      <c r="C425">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D425">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E425">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>28</v>
-      </c>
-      <c r="B426" t="s">
-        <v>25</v>
-      </c>
-      <c r="C426">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D426">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E426">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>32</v>
-      </c>
-      <c r="B427" t="s">
-        <v>24</v>
-      </c>
-      <c r="C427">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D427">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E427">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>35</v>
-      </c>
-      <c r="B428" t="s">
-        <v>15</v>
-      </c>
-      <c r="C428">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D428">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E428">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
-        <v>35</v>
-      </c>
-      <c r="B429" t="s">
-        <v>32</v>
-      </c>
-      <c r="C429">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D429">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E429">
-        <v>6.6699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
-        <v>35</v>
-      </c>
-      <c r="B430" t="s">
-        <v>24</v>
-      </c>
-      <c r="C430">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D430">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E430">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>35</v>
-      </c>
-      <c r="B431" t="s">
-        <v>21</v>
-      </c>
-      <c r="C431">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D431">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E431">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
-        <v>14</v>
-      </c>
-      <c r="B432" t="s">
-        <v>30</v>
-      </c>
-      <c r="C432">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D432">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E432">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
-        <v>32</v>
-      </c>
-      <c r="B433" t="s">
-        <v>19</v>
-      </c>
-      <c r="C433">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D433">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E433">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
-        <v>28</v>
-      </c>
-      <c r="B434" t="s">
-        <v>9</v>
-      </c>
-      <c r="C434">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D434">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="E434">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>11</v>
-      </c>
-      <c r="B435" t="s">
-        <v>19</v>
-      </c>
-      <c r="C435">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D435">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="E435">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>31</v>
-      </c>
-      <c r="B436" t="s">
-        <v>29</v>
-      </c>
-      <c r="C436">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D436">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E436">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
-        <v>14</v>
-      </c>
-      <c r="B437" t="s">
-        <v>13</v>
-      </c>
-      <c r="C437">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D437">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E437">
-        <v>3.2300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
-        <v>36</v>
-      </c>
-      <c r="B438" t="s">
-        <v>33</v>
-      </c>
-      <c r="C438">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D438">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E438">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
-        <v>17</v>
-      </c>
-      <c r="B439" t="s">
-        <v>33</v>
-      </c>
-      <c r="C439">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D439">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E439">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
-        <v>30</v>
-      </c>
-      <c r="B440" t="s">
-        <v>33</v>
-      </c>
-      <c r="C440">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D440">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E440">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>36</v>
-      </c>
-      <c r="B441" t="s">
-        <v>9</v>
-      </c>
-      <c r="C441">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D441">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E441">
-        <v>2.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>36</v>
-      </c>
-      <c r="B442" t="s">
-        <v>17</v>
-      </c>
-      <c r="C442">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D442">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E442">
-        <v>3.1199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
-        <v>36</v>
-      </c>
-      <c r="B443" t="s">
-        <v>6</v>
-      </c>
-      <c r="C443">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D443">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E443">
-        <v>2.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>19</v>
-      </c>
-      <c r="B444" t="s">
-        <v>16</v>
-      </c>
-      <c r="C444">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D444">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E444">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
-        <v>18</v>
-      </c>
-      <c r="B445" t="s">
-        <v>16</v>
-      </c>
-      <c r="C445">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D445">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E445">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>23</v>
-      </c>
-      <c r="B446" t="s">
-        <v>32</v>
-      </c>
-      <c r="C446">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D446">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E446">
-        <v>6.6699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>26</v>
-      </c>
-      <c r="B447" t="s">
-        <v>16</v>
-      </c>
-      <c r="C447">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D447">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E447">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>35</v>
-      </c>
-      <c r="B448" t="s">
-        <v>16</v>
-      </c>
-      <c r="C448">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D448">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E448">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>31</v>
-      </c>
-      <c r="B449" t="s">
-        <v>33</v>
-      </c>
-      <c r="C449">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D449">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="E449">
-        <v>6.25E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
